--- a/biology/Botanique/Trèfle_bai/Trèfle_bai.xlsx
+++ b/biology/Botanique/Trèfle_bai/Trèfle_bai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_bai</t>
+          <t>Trèfle_bai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trifolium badium
 Le trèfle bai (Trifolium badium Schreb.), appelé aussi trèfle brun, est l'un des nombreux représentants du genre Trifolium (les trèfles), appartenant à la famille des Fabacées (ou Légumineuses, ou encore Papilionacées). C'est une plante de petite taille poussant exclusivement en montagne à partir de 1 400 mètres. Les étendards de ses fleurs jaunes ont la particularité de virer au brun (bai) lorsqu'ils commencent à se faner.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A8fle_bai</t>
+          <t>Trèfle_bai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace assez commune dans les montagnes de France et du sud de l'Allemagne, à l'exception des Vosges, poussant de 1200 à 2 800 m sur sol surtout calcaire. Le trèfle bai apprécie les prés, les pelouses et les rocailles moyennement humides, on le rencontre souvent à proximité de cours d'eau. Floraison en juillet-août.
-Morphologie générale et végétative
-Plante herbacée basse (10 à 25 cm) formant des touffes. Souche épaisse, dont partent plusieurs rejets stériles. Tigé érigée ou ascendante, presque glabre (très petits poils appliqués), de couleur brunâtre. Feuilles peu nombreuses, les inférieures alternes, les supérieures opposées, longuement pétiolées et à stipules pointues. Les folioles, assez petites, sont elliptiques et finement dentées.
-Morphologie florale
-Fleurs hermaphrodites en petites têtes globuleuses et très serrées, l'inflorescence étant longuement pédonculée. Les fleurs sont jaune d'or, avec un étendard strié qui se recourbe très vite vers le bas et devient brun, tout comme les autres pétales. Pollinisation par les insectes.
-Fruit et graines
-Le fruit est une petite gousse. Dissémination épizoochore.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace assez commune dans les montagnes de France et du sud de l'Allemagne, à l'exception des Vosges, poussant de 1200 à 2 800 m sur sol surtout calcaire. Le trèfle bai apprécie les prés, les pelouses et les rocailles moyennement humides, on le rencontre souvent à proximité de cours d'eau. Floraison en juillet-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Trèfle_bai</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_bai</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée basse (10 à 25 cm) formant des touffes. Souche épaisse, dont partent plusieurs rejets stériles. Tigé érigée ou ascendante, presque glabre (très petits poils appliqués), de couleur brunâtre. Feuilles peu nombreuses, les inférieures alternes, les supérieures opposées, longuement pétiolées et à stipules pointues. Les folioles, assez petites, sont elliptiques et finement dentées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trèfle_bai</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_bai</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites en petites têtes globuleuses et très serrées, l'inflorescence étant longuement pédonculée. Les fleurs sont jaune d'or, avec un étendard strié qui se recourbe très vite vers le bas et devient brun, tout comme les autres pétales. Pollinisation par les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trèfle_bai</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tr%C3%A8fle_bai</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une petite gousse. Dissémination épizoochore.
 </t>
         </is>
       </c>
